--- a/pc/public/excel_template/esw/order.xlsx
+++ b/pc/public/excel_template/esw/order.xlsx
@@ -33,19 +33,19 @@
     <t xml:space="preserve">&lt;%const data = _data_.data;%&gt;&lt;%const selectList = { };%&gt;&lt;%const comment = data.getFieldCommentsOrder;%&gt;&lt;%=comment.lbl%&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;%=comment.status_lbl%&gt;&lt;%selectList.status = data.getDictbiz.find((item) =&gt; item[0]?.code === "order_status")?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.status &amp;&amp; selectList.status.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.status.join(",") }"` })%&gt;</t>
+    <t xml:space="preserve">&lt;%=comment.status_lbl%&gt;&lt;%selectList.status = data.getDictbiz.find((item) =&gt; item[0]?.code === "order_status")?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.status &amp;&amp; selectList.status.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.status.join(",") }"`, allowBlank: '0' })%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%=comment.usr_id_lbl%&gt;&lt;%selectList.usr_id = data.findAllUsr?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.usr_id &amp;&amp; selectList.usr_id.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.usr_id.join(",") }"`, allowBlank: '0' })%&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;%=comment.card_id_lbl%&gt;&lt;%selectList.card_id = data.findAllCard?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.card_id &amp;&amp; selectList.card_id.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.card_id.join(",") }"`, allowBlank: '0' })%&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;%=comment.price%&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;%=comment.card_id_lbl%&gt;&lt;%selectList.card_id = data.findAllCard?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.card_id &amp;&amp; selectList.card_id.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.card_id.join(",") }"`, allowBlank: '0' })%&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;%=comment.type_lbl%&gt;&lt;%selectList.type = data.getDictbiz.find((item) =&gt; item[0]?.code === "order_type")?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.type &amp;&amp; selectList.type.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.type.join(",") }"` })%&gt;</t>
+    <t xml:space="preserve">&lt;%=comment.type_lbl%&gt;&lt;%selectList.type = data.getDictbiz.find((item) =&gt; item[0]?.code === "order_type")?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.type &amp;&amp; selectList.type.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.type.join(",") }"`, allowBlank: '0' })%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%=comment.amt%&gt;</t>
@@ -93,10 +93,10 @@
     <t xml:space="preserve">&lt;%=model.usr_id_lbl%&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;%=model.card_id_lbl%&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;%~model.price%&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;%=model.card_id_lbl%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%=model.type_lbl%&gt;</t>

--- a/pc/public/excel_template/esw/order.xlsx
+++ b/pc/public/excel_template/esw/order.xlsx
@@ -39,7 +39,7 @@
     <t xml:space="preserve">&lt;%=comment.usr_id_lbl%&gt;&lt;%selectList.usr_id = data.findAllUsr?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.usr_id &amp;&amp; selectList.usr_id.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.usr_id.join(",") }"`, allowBlank: '0' })%&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;%=comment.card_id_lbl%&gt;&lt;%selectList.card_id = data.findAllCard?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.card_id &amp;&amp; selectList.card_id.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.card_id.join(",") }"`, allowBlank: '0' })%&gt;</t>
+    <t xml:space="preserve">&lt;%=comment.card_id_lbl%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%=comment.price%&gt;</t>

--- a/pc/public/excel_template/esw/order.xlsx
+++ b/pc/public/excel_template/esw/order.xlsx
@@ -33,6 +33,9 @@
     <t xml:space="preserve">&lt;%const data = _data_.data;%&gt;&lt;%const selectList = { };%&gt;&lt;%const comment = data.getFieldCommentsOrder;%&gt;&lt;%=comment.lbl%&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;%=comment.company%&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;%=comment.status_lbl%&gt;&lt;%selectList.status = data.getDictbiz.find((item) =&gt; item[0]?.code === "order_status")?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.status &amp;&amp; selectList.status.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.status.join(",") }"`, allowBlank: '0' })%&gt;</t>
   </si>
   <si>
@@ -85,6 +88,9 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;%forRow model in data.findAllOrder%&gt;&lt;%=model.lbl%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=model.company%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%=model.status_lbl%&gt;</t>
@@ -521,61 +527,67 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R2" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/pc/public/excel_template/esw/order.xlsx
+++ b/pc/public/excel_template/esw/order.xlsx
@@ -36,6 +36,9 @@
     <t xml:space="preserve">&lt;%=comment.company%&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;%=comment.phone%&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;%=comment.status_lbl%&gt;&lt;%selectList.status = data.getDictbiz.find((item) =&gt; item[0]?.code === "order_status")?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.status &amp;&amp; selectList.status.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.status.join(",") }"`, allowBlank: '0' })%&gt;</t>
   </si>
   <si>
@@ -91,6 +94,9 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;%=model.company%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=model.phone%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%=model.status_lbl%&gt;</t>
@@ -530,64 +536,70 @@
       <c r="S1" t="s">
         <v>18</v>
       </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="T2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/pc/public/excel_template/esw/order.xlsx
+++ b/pc/public/excel_template/esw/order.xlsx
@@ -60,15 +60,15 @@
     <t xml:space="preserve">&lt;%=comment.give_amt%&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;%=comment.integral%&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;%=comment.balance%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%=comment.give_balance%&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;%=comment.integral%&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;%=comment.is_locked_lbl%&gt;&lt;%selectList.is_locked = data.getDict.find((item) =&gt; item[0]?.code === "is_locked")?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.is_locked &amp;&amp; selectList.is_locked.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.is_locked.join(",") }"`, allowBlank: '0' })%&gt;</t>
   </si>
   <si>
@@ -120,13 +120,13 @@
     <t xml:space="preserve">&lt;%~model.give_amt%&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;%~model.integral%&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;%~model.balance%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%~model.give_balance%&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;%~model.integral%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%=model.is_locked_lbl%&gt;</t>
